--- a/elsa/G2A ELSA Longitudinal Variable List.xlsx
+++ b/elsa/G2A ELSA Longitudinal Variable List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793841B-FA1D-49EE-9E29-6BE303DA3812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7206B-D939-4E0F-9063-0284D34E7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22310" yWindow="2810" windowWidth="19260" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-15840" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wave8" sheetId="6" r:id="rId1"/>
-    <sheet name="household" sheetId="7" r:id="rId2"/>
+    <sheet name="wave6" sheetId="8" r:id="rId1"/>
+    <sheet name="wave8" sheetId="6" r:id="rId2"/>
+    <sheet name="household" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="344">
   <si>
     <t>BMI</t>
   </si>
@@ -29,9 +30,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>Time since last ate</t>
   </si>
   <si>
@@ -801,6 +799,261 @@
   </si>
   <si>
     <t>hh8hhresp</t>
+  </si>
+  <si>
+    <t>Spouse sex</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>spousegender</t>
+  </si>
+  <si>
+    <t>r6strat</t>
+  </si>
+  <si>
+    <t>r6clust</t>
+  </si>
+  <si>
+    <t>r6cwtresp</t>
+  </si>
+  <si>
+    <t>s6cwtresp</t>
+  </si>
+  <si>
+    <t>r6iwindm</t>
+  </si>
+  <si>
+    <t>s6iwindm</t>
+  </si>
+  <si>
+    <t>r6iwindy</t>
+  </si>
+  <si>
+    <t>s6iwindy</t>
+  </si>
+  <si>
+    <t>s6elsamp</t>
+  </si>
+  <si>
+    <t>r6cohort_e</t>
+  </si>
+  <si>
+    <t>s6cohort_e</t>
+  </si>
+  <si>
+    <t>hh6hhid</t>
+  </si>
+  <si>
+    <t>s6idauniq</t>
+  </si>
+  <si>
+    <t>h6coupid</t>
+  </si>
+  <si>
+    <t>r6agey</t>
+  </si>
+  <si>
+    <t>s6agey</t>
+  </si>
+  <si>
+    <t>s6gender</t>
+  </si>
+  <si>
+    <t>s6educl</t>
+  </si>
+  <si>
+    <t>s6edyrs_e</t>
+  </si>
+  <si>
+    <t>r6itearn</t>
+  </si>
+  <si>
+    <t>s6itearn</t>
+  </si>
+  <si>
+    <t>r6mstat</t>
+  </si>
+  <si>
+    <t>s6mstat</t>
+  </si>
+  <si>
+    <t>r6mcurln</t>
+  </si>
+  <si>
+    <t>s6mcurln</t>
+  </si>
+  <si>
+    <t>r6work</t>
+  </si>
+  <si>
+    <t>s6work</t>
+  </si>
+  <si>
+    <t>r6retemp</t>
+  </si>
+  <si>
+    <t>s6retemp</t>
+  </si>
+  <si>
+    <t>r6smokev</t>
+  </si>
+  <si>
+    <t>s6smokev</t>
+  </si>
+  <si>
+    <t>r6smoken</t>
+  </si>
+  <si>
+    <t>s6smoken</t>
+  </si>
+  <si>
+    <t>r6drink</t>
+  </si>
+  <si>
+    <t>s6drink</t>
+  </si>
+  <si>
+    <t>r6drinkd_e</t>
+  </si>
+  <si>
+    <t>s6drinkd_e</t>
+  </si>
+  <si>
+    <t>r6drinkwn_e</t>
+  </si>
+  <si>
+    <t>s6drinkwn_e</t>
+  </si>
+  <si>
+    <t>r6mdactx_e</t>
+  </si>
+  <si>
+    <t>s6mdactx_e</t>
+  </si>
+  <si>
+    <t>r6vgactx_e</t>
+  </si>
+  <si>
+    <t>s6vgactx_e</t>
+  </si>
+  <si>
+    <t>r6child</t>
+  </si>
+  <si>
+    <t>s6child</t>
+  </si>
+  <si>
+    <t>r6hipriv</t>
+  </si>
+  <si>
+    <t>s6hipriv</t>
+  </si>
+  <si>
+    <t>r6systo1</t>
+  </si>
+  <si>
+    <t>s6systo1</t>
+  </si>
+  <si>
+    <t>r6systo2</t>
+  </si>
+  <si>
+    <t>s6systo2</t>
+  </si>
+  <si>
+    <t>r6systo3</t>
+  </si>
+  <si>
+    <t>s6systo3</t>
+  </si>
+  <si>
+    <t>r6diasto1</t>
+  </si>
+  <si>
+    <t>s6diasto1</t>
+  </si>
+  <si>
+    <t>r6diasto2</t>
+  </si>
+  <si>
+    <t>s6diasto2</t>
+  </si>
+  <si>
+    <t>r6diasto3</t>
+  </si>
+  <si>
+    <t>s6diasto3</t>
+  </si>
+  <si>
+    <t>r6systo</t>
+  </si>
+  <si>
+    <t>s6systo</t>
+  </si>
+  <si>
+    <t>r6diasto</t>
+  </si>
+  <si>
+    <t>s6diasto</t>
+  </si>
+  <si>
+    <t>r6hibpe</t>
+  </si>
+  <si>
+    <t>s6hibpe</t>
+  </si>
+  <si>
+    <t>r6rxhibp</t>
+  </si>
+  <si>
+    <t>s6rxhibp</t>
+  </si>
+  <si>
+    <t>r6diabe</t>
+  </si>
+  <si>
+    <t>s6diabe</t>
+  </si>
+  <si>
+    <t>r6rxdiab</t>
+  </si>
+  <si>
+    <t>s6rxdiab</t>
+  </si>
+  <si>
+    <t>r6mweight</t>
+  </si>
+  <si>
+    <t>s6mweight</t>
+  </si>
+  <si>
+    <t>r6mheight</t>
+  </si>
+  <si>
+    <t>s6mheight</t>
+  </si>
+  <si>
+    <t>r6mbmi</t>
+  </si>
+  <si>
+    <t>s6mbmi</t>
+  </si>
+  <si>
+    <t>s6racem</t>
+  </si>
+  <si>
+    <t>h6atotb</t>
+  </si>
+  <si>
+    <t>h6itot</t>
+  </si>
+  <si>
+    <t>hh6ctot1m</t>
+  </si>
+  <si>
+    <t>hh6hhresp</t>
   </si>
 </sst>
 </file>
@@ -891,7 +1144,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1217,12 +1560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C18A0-0761-4BF3-9F1D-A36E2FCBDA0F}">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFE844B-5EA2-446D-9DE1-2A8431B5ED20}">
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69:F69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,1096 +1582,1119 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
         <v>255</v>
       </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>237</v>
+      <c r="E18" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>148</v>
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="D27" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>249</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
         <v>161</v>
       </c>
-      <c r="C30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>194</v>
+      <c r="D31" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>224</v>
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>230</v>
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>219</v>
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>243</v>
+        <v>118</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>259</v>
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B91:B1048576 B75:B86 B15:B20 B31:B66 B22:B29 B1:B13">
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+  <conditionalFormatting sqref="B92:B1048576 B76:B87 B15:B21 B32:B67 B23:B30 B1:B13">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576 D69:E69">
+  <conditionalFormatting sqref="D70:E70 D1:D16 D18:D69 D71:D1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E16 E18:E1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,6 +2703,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C18A0-0761-4BF3-9F1D-A36E2FCBDA0F}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="70.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B92:B1048576 B76:B87 B15:B21 B32:B67 B23:B30 B1:B13">
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70:E70 D1:D16 D18:D1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E16 E18:E1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516FB498-DDE8-483E-BF1C-FF0717D5B9F0}">
   <dimension ref="A2:D10"/>
   <sheetViews>
@@ -2352,86 +3861,86 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/elsa/G2A ELSA Longitudinal Variable List.xlsx
+++ b/elsa/G2A ELSA Longitudinal Variable List.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7206B-D939-4E0F-9063-0284D34E7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8690691-A70A-4353-A5AB-BE57CAADD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-15840" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wave6" sheetId="8" r:id="rId1"/>
-    <sheet name="wave8" sheetId="6" r:id="rId2"/>
-    <sheet name="household" sheetId="7" r:id="rId3"/>
+    <sheet name="biomarkers" sheetId="9" r:id="rId1"/>
+    <sheet name="wave2" sheetId="10" r:id="rId2"/>
+    <sheet name="wave4" sheetId="11" r:id="rId3"/>
+    <sheet name="wave6" sheetId="8" r:id="rId4"/>
+    <sheet name="wave8" sheetId="6" r:id="rId5"/>
+    <sheet name="wave9" sheetId="12" r:id="rId6"/>
+    <sheet name="household" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="649">
   <si>
     <t>BMI</t>
   </si>
@@ -1054,13 +1058,928 @@
   </si>
   <si>
     <t>hh6hhresp</t>
+  </si>
+  <si>
+    <t>wave4</t>
+  </si>
+  <si>
+    <t>wave6</t>
+  </si>
+  <si>
+    <t>Unique cross-wave individual serial number</t>
+  </si>
+  <si>
+    <t>Blood fibrinogen level (g/l)</t>
+  </si>
+  <si>
+    <t>cfib</t>
+  </si>
+  <si>
+    <t>Blood total cholesterol level (mmol/l)</t>
+  </si>
+  <si>
+    <t>chol</t>
+  </si>
+  <si>
+    <t>Blood HDL level (mmol/l)</t>
+  </si>
+  <si>
+    <t>hdl</t>
+  </si>
+  <si>
+    <t>Blood triglyceride level (mmol/l)</t>
+  </si>
+  <si>
+    <t>trig</t>
+  </si>
+  <si>
+    <t>Blood LDL level (mmol/l)</t>
+  </si>
+  <si>
+    <t>ldl</t>
+  </si>
+  <si>
+    <t>Blood glucose level (mmol/L) - fasting samples only</t>
+  </si>
+  <si>
+    <t>fglu</t>
+  </si>
+  <si>
+    <t>Blood ferritin level (ng/ml)</t>
+  </si>
+  <si>
+    <t>rtin</t>
+  </si>
+  <si>
+    <t>Blood CRP level (mg/l)</t>
+  </si>
+  <si>
+    <t>hscrp</t>
+  </si>
+  <si>
+    <t>Blood APOE level (mmol/l)</t>
+  </si>
+  <si>
+    <t>apoe</t>
+  </si>
+  <si>
+    <t>Blood haemoglobin level (g/dl)</t>
+  </si>
+  <si>
+    <t>hgb</t>
+  </si>
+  <si>
+    <t>Blood glycated haemoglobin level</t>
+  </si>
+  <si>
+    <t>hba1c</t>
+  </si>
+  <si>
+    <t>Blood dehydroepiandrosterone (DHEAS) level (umol/l)</t>
+  </si>
+  <si>
+    <t>dheas</t>
+  </si>
+  <si>
+    <t>Blood insulin like growth factor(IGF-1) level (nmol/l)</t>
+  </si>
+  <si>
+    <t>igf1</t>
+  </si>
+  <si>
+    <t>White blood cell count</t>
+  </si>
+  <si>
+    <t>wbc</t>
+  </si>
+  <si>
+    <t>Blood mean corpusular haemoglobin level(pg/cell)</t>
+  </si>
+  <si>
+    <t>mch</t>
+  </si>
+  <si>
+    <t>Vitamin D level (unit)</t>
+  </si>
+  <si>
+    <t>vitd</t>
+  </si>
+  <si>
+    <t>r2strat</t>
+  </si>
+  <si>
+    <t>r2clust</t>
+  </si>
+  <si>
+    <t>r2cwtresp</t>
+  </si>
+  <si>
+    <t>r2iwindm</t>
+  </si>
+  <si>
+    <t>r2iwindy</t>
+  </si>
+  <si>
+    <t>r2cohort_e</t>
+  </si>
+  <si>
+    <t>r2agey</t>
+  </si>
+  <si>
+    <t>r2itearn</t>
+  </si>
+  <si>
+    <t>r2mstat</t>
+  </si>
+  <si>
+    <t>r2mcurln</t>
+  </si>
+  <si>
+    <t>r2work</t>
+  </si>
+  <si>
+    <t>r2retemp</t>
+  </si>
+  <si>
+    <t>r2smokev</t>
+  </si>
+  <si>
+    <t>r2smoken</t>
+  </si>
+  <si>
+    <t>r2drink</t>
+  </si>
+  <si>
+    <t>r2drinkd_e</t>
+  </si>
+  <si>
+    <t>r2mdactx_e</t>
+  </si>
+  <si>
+    <t>r2vgactx_e</t>
+  </si>
+  <si>
+    <t>r2child</t>
+  </si>
+  <si>
+    <t>r2hipriv</t>
+  </si>
+  <si>
+    <t>r2systo1</t>
+  </si>
+  <si>
+    <t>r2systo2</t>
+  </si>
+  <si>
+    <t>r2systo3</t>
+  </si>
+  <si>
+    <t>r2diasto1</t>
+  </si>
+  <si>
+    <t>r2diasto2</t>
+  </si>
+  <si>
+    <t>r2diasto3</t>
+  </si>
+  <si>
+    <t>r2systo</t>
+  </si>
+  <si>
+    <t>r2diasto</t>
+  </si>
+  <si>
+    <t>r2hibpe</t>
+  </si>
+  <si>
+    <t>r2rxhibp</t>
+  </si>
+  <si>
+    <t>r2diabe</t>
+  </si>
+  <si>
+    <t>r2rxdiab</t>
+  </si>
+  <si>
+    <t>r2mweight</t>
+  </si>
+  <si>
+    <t>r2mheight</t>
+  </si>
+  <si>
+    <t>r2mbmi</t>
+  </si>
+  <si>
+    <t>s2cwtresp</t>
+  </si>
+  <si>
+    <t>s2iwindm</t>
+  </si>
+  <si>
+    <t>s2iwindy</t>
+  </si>
+  <si>
+    <t>s2elsamp</t>
+  </si>
+  <si>
+    <t>s2cohort_e</t>
+  </si>
+  <si>
+    <t>s2idauniq</t>
+  </si>
+  <si>
+    <t>s2agey</t>
+  </si>
+  <si>
+    <t>s2gender</t>
+  </si>
+  <si>
+    <t>s2educl</t>
+  </si>
+  <si>
+    <t>s2edyrs_e</t>
+  </si>
+  <si>
+    <t>s2itearn</t>
+  </si>
+  <si>
+    <t>s2mstat</t>
+  </si>
+  <si>
+    <t>s2mcurln</t>
+  </si>
+  <si>
+    <t>s2work</t>
+  </si>
+  <si>
+    <t>s2retemp</t>
+  </si>
+  <si>
+    <t>s2smokev</t>
+  </si>
+  <si>
+    <t>s2smoken</t>
+  </si>
+  <si>
+    <t>s2drink</t>
+  </si>
+  <si>
+    <t>s2drinkd_e</t>
+  </si>
+  <si>
+    <t>s2mdactx_e</t>
+  </si>
+  <si>
+    <t>s2vgactx_e</t>
+  </si>
+  <si>
+    <t>s2child</t>
+  </si>
+  <si>
+    <t>s2hipriv</t>
+  </si>
+  <si>
+    <t>s2systo1</t>
+  </si>
+  <si>
+    <t>s2systo2</t>
+  </si>
+  <si>
+    <t>s2systo3</t>
+  </si>
+  <si>
+    <t>s2diasto1</t>
+  </si>
+  <si>
+    <t>s2diasto2</t>
+  </si>
+  <si>
+    <t>s2diasto3</t>
+  </si>
+  <si>
+    <t>s2systo</t>
+  </si>
+  <si>
+    <t>s2diasto</t>
+  </si>
+  <si>
+    <t>s2hibpe</t>
+  </si>
+  <si>
+    <t>s2rxhibp</t>
+  </si>
+  <si>
+    <t>s2diabe</t>
+  </si>
+  <si>
+    <t>s2rxdiab</t>
+  </si>
+  <si>
+    <t>s2mweight</t>
+  </si>
+  <si>
+    <t>s2mheight</t>
+  </si>
+  <si>
+    <t>s2mbmi</t>
+  </si>
+  <si>
+    <t>s2racem</t>
+  </si>
+  <si>
+    <t>hh2hhid</t>
+  </si>
+  <si>
+    <t>h2coupid</t>
+  </si>
+  <si>
+    <t>h2atotb</t>
+  </si>
+  <si>
+    <t>h2itot</t>
+  </si>
+  <si>
+    <t>hh2ctot1m</t>
+  </si>
+  <si>
+    <t>hh2hhresp</t>
+  </si>
+  <si>
+    <t>r2drinkn_e</t>
+  </si>
+  <si>
+    <t>s2drinkn_e</t>
+  </si>
+  <si>
+    <t>r4strat</t>
+  </si>
+  <si>
+    <t>r4clust</t>
+  </si>
+  <si>
+    <t>r4cwtresp</t>
+  </si>
+  <si>
+    <t>r4iwindm</t>
+  </si>
+  <si>
+    <t>r4iwindy</t>
+  </si>
+  <si>
+    <t>r4cohort_e</t>
+  </si>
+  <si>
+    <t>r4agey</t>
+  </si>
+  <si>
+    <t>r4itearn</t>
+  </si>
+  <si>
+    <t>r4mstat</t>
+  </si>
+  <si>
+    <t>r4mcurln</t>
+  </si>
+  <si>
+    <t>r4work</t>
+  </si>
+  <si>
+    <t>r4retemp</t>
+  </si>
+  <si>
+    <t>r4smokev</t>
+  </si>
+  <si>
+    <t>r4smoken</t>
+  </si>
+  <si>
+    <t>r4drink</t>
+  </si>
+  <si>
+    <t>r4drinkd_e</t>
+  </si>
+  <si>
+    <t>r4mdactx_e</t>
+  </si>
+  <si>
+    <t>r4vgactx_e</t>
+  </si>
+  <si>
+    <t>r4child</t>
+  </si>
+  <si>
+    <t>r4hipriv</t>
+  </si>
+  <si>
+    <t>r4systo1</t>
+  </si>
+  <si>
+    <t>r4systo2</t>
+  </si>
+  <si>
+    <t>r4systo3</t>
+  </si>
+  <si>
+    <t>r4diasto1</t>
+  </si>
+  <si>
+    <t>r4diasto2</t>
+  </si>
+  <si>
+    <t>r4diasto3</t>
+  </si>
+  <si>
+    <t>r4systo</t>
+  </si>
+  <si>
+    <t>r4diasto</t>
+  </si>
+  <si>
+    <t>r4hibpe</t>
+  </si>
+  <si>
+    <t>r4rxhibp</t>
+  </si>
+  <si>
+    <t>r4diabe</t>
+  </si>
+  <si>
+    <t>r4rxdiab</t>
+  </si>
+  <si>
+    <t>r4mweight</t>
+  </si>
+  <si>
+    <t>r4mheight</t>
+  </si>
+  <si>
+    <t>r4mbmi</t>
+  </si>
+  <si>
+    <t>s4cwtresp</t>
+  </si>
+  <si>
+    <t>s4iwindm</t>
+  </si>
+  <si>
+    <t>s4iwindy</t>
+  </si>
+  <si>
+    <t>s4elsamp</t>
+  </si>
+  <si>
+    <t>s4cohort_e</t>
+  </si>
+  <si>
+    <t>s4idauniq</t>
+  </si>
+  <si>
+    <t>s4agey</t>
+  </si>
+  <si>
+    <t>s4gender</t>
+  </si>
+  <si>
+    <t>s4educl</t>
+  </si>
+  <si>
+    <t>s4edyrs_e</t>
+  </si>
+  <si>
+    <t>s4itearn</t>
+  </si>
+  <si>
+    <t>s4mstat</t>
+  </si>
+  <si>
+    <t>s4mcurln</t>
+  </si>
+  <si>
+    <t>s4work</t>
+  </si>
+  <si>
+    <t>s4retemp</t>
+  </si>
+  <si>
+    <t>s4smokev</t>
+  </si>
+  <si>
+    <t>s4smoken</t>
+  </si>
+  <si>
+    <t>s4drink</t>
+  </si>
+  <si>
+    <t>s4drinkd_e</t>
+  </si>
+  <si>
+    <t>s4mdactx_e</t>
+  </si>
+  <si>
+    <t>s4vgactx_e</t>
+  </si>
+  <si>
+    <t>s4child</t>
+  </si>
+  <si>
+    <t>s4hipriv</t>
+  </si>
+  <si>
+    <t>s4systo1</t>
+  </si>
+  <si>
+    <t>s4systo2</t>
+  </si>
+  <si>
+    <t>s4systo3</t>
+  </si>
+  <si>
+    <t>s4diasto1</t>
+  </si>
+  <si>
+    <t>s4diasto2</t>
+  </si>
+  <si>
+    <t>s4diasto3</t>
+  </si>
+  <si>
+    <t>s4systo</t>
+  </si>
+  <si>
+    <t>s4diasto</t>
+  </si>
+  <si>
+    <t>s4hibpe</t>
+  </si>
+  <si>
+    <t>s4rxhibp</t>
+  </si>
+  <si>
+    <t>s4diabe</t>
+  </si>
+  <si>
+    <t>s4rxdiab</t>
+  </si>
+  <si>
+    <t>s4mweight</t>
+  </si>
+  <si>
+    <t>s4mheight</t>
+  </si>
+  <si>
+    <t>s4mbmi</t>
+  </si>
+  <si>
+    <t>s4racem</t>
+  </si>
+  <si>
+    <t>hh4hhid</t>
+  </si>
+  <si>
+    <t>h4coupid</t>
+  </si>
+  <si>
+    <t>h4atotb</t>
+  </si>
+  <si>
+    <t>h4itot</t>
+  </si>
+  <si>
+    <t>hh4ctot1m</t>
+  </si>
+  <si>
+    <t>hh4hhresp</t>
+  </si>
+  <si>
+    <t>r4drinkwn_e</t>
+  </si>
+  <si>
+    <t>s4drinkwn_e</t>
+  </si>
+  <si>
+    <t>wave2</t>
+  </si>
+  <si>
+    <t>s9cwtresp</t>
+  </si>
+  <si>
+    <t>s9iwindm</t>
+  </si>
+  <si>
+    <t>s9iwindy</t>
+  </si>
+  <si>
+    <t>s9elsamp</t>
+  </si>
+  <si>
+    <t>s9cohort_e</t>
+  </si>
+  <si>
+    <t>s9idauniq</t>
+  </si>
+  <si>
+    <t>s9agey</t>
+  </si>
+  <si>
+    <t>s9gender</t>
+  </si>
+  <si>
+    <t>s9educl</t>
+  </si>
+  <si>
+    <t>s9edyrs_e</t>
+  </si>
+  <si>
+    <t>s9itearn</t>
+  </si>
+  <si>
+    <t>s9mstat</t>
+  </si>
+  <si>
+    <t>s9mcurln</t>
+  </si>
+  <si>
+    <t>s9work</t>
+  </si>
+  <si>
+    <t>s9retemp</t>
+  </si>
+  <si>
+    <t>s9smokev</t>
+  </si>
+  <si>
+    <t>s9smoken</t>
+  </si>
+  <si>
+    <t>s9drink</t>
+  </si>
+  <si>
+    <t>s9drinkd_e</t>
+  </si>
+  <si>
+    <t>s9drinkwn_e</t>
+  </si>
+  <si>
+    <t>s9mdactx_e</t>
+  </si>
+  <si>
+    <t>s9vgactx_e</t>
+  </si>
+  <si>
+    <t>s9child</t>
+  </si>
+  <si>
+    <t>s9hipriv</t>
+  </si>
+  <si>
+    <t>s9systo1</t>
+  </si>
+  <si>
+    <t>s9systo2</t>
+  </si>
+  <si>
+    <t>s9systo3</t>
+  </si>
+  <si>
+    <t>s9diasto1</t>
+  </si>
+  <si>
+    <t>s9diasto2</t>
+  </si>
+  <si>
+    <t>s9diasto3</t>
+  </si>
+  <si>
+    <t>s9systo</t>
+  </si>
+  <si>
+    <t>s9diasto</t>
+  </si>
+  <si>
+    <t>s9hibpe</t>
+  </si>
+  <si>
+    <t>s9rxhibp</t>
+  </si>
+  <si>
+    <t>s9diabe</t>
+  </si>
+  <si>
+    <t>s9rxdiab</t>
+  </si>
+  <si>
+    <t>s9mweight</t>
+  </si>
+  <si>
+    <t>s9mheight</t>
+  </si>
+  <si>
+    <t>s9mbmi</t>
+  </si>
+  <si>
+    <t>s9racem</t>
+  </si>
+  <si>
+    <t>hh9hhid</t>
+  </si>
+  <si>
+    <t>h9coupid</t>
+  </si>
+  <si>
+    <t>h9atotb</t>
+  </si>
+  <si>
+    <t>h9itot</t>
+  </si>
+  <si>
+    <t>hh9ctot1m</t>
+  </si>
+  <si>
+    <t>hh9hhresp</t>
+  </si>
+  <si>
+    <t>r9strat</t>
+  </si>
+  <si>
+    <t>r9clust</t>
+  </si>
+  <si>
+    <t>r9cwtresp</t>
+  </si>
+  <si>
+    <t>r9iwindm</t>
+  </si>
+  <si>
+    <t>r9iwindy</t>
+  </si>
+  <si>
+    <t>r9cohort_e</t>
+  </si>
+  <si>
+    <t>r9agey</t>
+  </si>
+  <si>
+    <t>r9itearn</t>
+  </si>
+  <si>
+    <t>r9mstat</t>
+  </si>
+  <si>
+    <t>r9mcurln</t>
+  </si>
+  <si>
+    <t>r9work</t>
+  </si>
+  <si>
+    <t>r9retemp</t>
+  </si>
+  <si>
+    <t>r9smokev</t>
+  </si>
+  <si>
+    <t>r9smoken</t>
+  </si>
+  <si>
+    <t>r9drink</t>
+  </si>
+  <si>
+    <t>r9drinkd_e</t>
+  </si>
+  <si>
+    <t>r9drinkwn_e</t>
+  </si>
+  <si>
+    <t>r9mdactx_e</t>
+  </si>
+  <si>
+    <t>r9vgactx_e</t>
+  </si>
+  <si>
+    <t>r9child</t>
+  </si>
+  <si>
+    <t>r9hipriv</t>
+  </si>
+  <si>
+    <t>r9systo1</t>
+  </si>
+  <si>
+    <t>r9systo2</t>
+  </si>
+  <si>
+    <t>r9systo3</t>
+  </si>
+  <si>
+    <t>r9diasto1</t>
+  </si>
+  <si>
+    <t>r9diasto2</t>
+  </si>
+  <si>
+    <t>r9diasto3</t>
+  </si>
+  <si>
+    <t>r9systo</t>
+  </si>
+  <si>
+    <t>r9diasto</t>
+  </si>
+  <si>
+    <t>r9hibpe</t>
+  </si>
+  <si>
+    <t>r9rxhibp</t>
+  </si>
+  <si>
+    <t>r9diabe</t>
+  </si>
+  <si>
+    <t>r9rxdiab</t>
+  </si>
+  <si>
+    <t>r9mweight</t>
+  </si>
+  <si>
+    <t>r9mheight</t>
+  </si>
+  <si>
+    <t>r9mbmi</t>
+  </si>
+  <si>
+    <t>VITD</t>
+  </si>
+  <si>
+    <t>w89bldwt</t>
+  </si>
+  <si>
+    <t>wave8_9</t>
+  </si>
+  <si>
+    <t>Weighting group</t>
+  </si>
+  <si>
+    <t>NurGrp</t>
+  </si>
+  <si>
+    <t>wavevisit</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>Wave Nurse visit took place</t>
+  </si>
+  <si>
+    <t>w89nurwt_N</t>
+  </si>
+  <si>
+    <t>Analytic Nurse weight (wave 8 and wave 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analytic blood weight (wave 8 and wave 9) </t>
+  </si>
+  <si>
+    <t>bldwt</t>
+  </si>
+  <si>
+    <t>w89nurwt_G</t>
+  </si>
+  <si>
+    <t>nurwt_n</t>
+  </si>
+  <si>
+    <t>nurwt_g</t>
+  </si>
+  <si>
+    <t>Analytic Nurse weight grossed to population  (wave 8 and wave 9)</t>
+  </si>
+  <si>
+    <t>w2wtnur</t>
+  </si>
+  <si>
+    <t>w2wtbld</t>
+  </si>
+  <si>
+    <t>w4nurwt</t>
+  </si>
+  <si>
+    <t>w4bldwt</t>
+  </si>
+  <si>
+    <t>w6nurwt</t>
+  </si>
+  <si>
+    <t>w6bldwt</t>
+  </si>
+  <si>
+    <t>nurgroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +2004,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1128,7 +2074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1140,11 +2086,231 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1560,12 +2726,2743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5017A4-55A6-46E1-8586-4A30DD00F575}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" t="s">
+        <v>640</v>
+      </c>
+      <c r="G5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C6" t="s">
+        <v>648</v>
+      </c>
+      <c r="G6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" t="s">
+        <v>376</v>
+      </c>
+      <c r="G22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088357E4-C52B-4FC1-96D8-17984CDD92DD}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>456</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>457</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B15:B21 B32:B67 B23:B30 B1:B13">
+    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D16 D32:D67 D18:D30">
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E16 E32:E67 E18:E30">
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8578BB0C-72F7-460E-84C8-D064649B70A3}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>538</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>539</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B15:B21 B32:B67 B23:B30 B1:B13">
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D16 D18:D29 D31:D67">
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E16 E18:E29 E31:E67">
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFE844B-5EA2-446D-9DE1-2A8431B5ED20}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2677,38 +6574,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B92:B1048576 B76:B87 B15:B21 B32:B67 B23:B30 B1:B13">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:E70 D1:D16 D18:D69 D71:D1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E16 E18:E1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C18A0-0761-4BF3-9F1D-A36E2FCBDA0F}">
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" sqref="A1:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3845,7 +7742,1128 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39539E1F-6B1A-4916-946A-ECD8857D32B3}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>586</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>587</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>588</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B15:B21 B32:B67 B23:B30 B1:B13">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D16 D18:D67">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E16 E18:E67">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516FB498-DDE8-483E-BF1C-FF0717D5B9F0}">
   <dimension ref="A2:D10"/>
   <sheetViews>

--- a/elsa/G2A ELSA Longitudinal Variable List.xlsx
+++ b/elsa/G2A ELSA Longitudinal Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8690691-A70A-4353-A5AB-BE57CAADD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB9270F-6D45-4725-BB2C-0A3CB76940D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-15840" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-14520" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biomarkers" sheetId="9" r:id="rId1"/>
@@ -2730,7 +2730,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
